--- a/test/functional/xlsx_files/chart_pie05.xlsx
+++ b/test/functional/xlsx_files/chart_pie05.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -124,7 +124,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
